--- a/Work/Data/nf_db.xlsx
+++ b/Work/Data/nf_db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A96DB47-5B11-4A51-98E9-FC62ADFBEE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A95249-027F-4FA2-BCAA-3FB282B9A231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5124" yWindow="1980" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 нф" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="5">
-        <v>1232</v>
+        <v>1200</v>
       </c>
       <c r="J3" s="4">
         <v>1232</v>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="5">
-        <v>1232</v>
+        <v>1270</v>
       </c>
       <c r="J4" s="4">
         <v>1230</v>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="5">
-        <v>1232</v>
+        <v>1176</v>
       </c>
       <c r="J5" s="4">
         <v>1235</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>11887</v>
+        <v>12503</v>
       </c>
       <c r="J7" s="4">
         <v>11887</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>11887</v>
+        <v>11300</v>
       </c>
       <c r="J8" s="4">
         <v>11890</v>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>11887</v>
+        <v>11670</v>
       </c>
       <c r="J9" s="4">
         <v>11892</v>

--- a/Work/Data/nf_db.xlsx
+++ b/Work/Data/nf_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A95249-027F-4FA2-BCAA-3FB282B9A231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9273CC5-1A34-4EE2-B13A-0F035E9E08F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5124" yWindow="1980" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5064" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 нф" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
     <t>Номер страны по добыче</t>
   </si>
   <si>
-    <t>Добыча (1000 баррель/день)</t>
-  </si>
-  <si>
     <t>Средняя добыча за год (1000 баррелей/день)</t>
+  </si>
+  <si>
+    <t>Добыча (1000 баррелей/день)</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,10 +514,10 @@
         <v>24</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -543,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="5">
-        <v>1232</v>
+        <v>1200</v>
       </c>
       <c r="J2" s="4">
         <v>1220</v>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="5">
-        <v>1270</v>
+        <v>1200</v>
       </c>
       <c r="J4" s="4">
         <v>1230</v>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="5">
-        <v>1176</v>
+        <v>1200</v>
       </c>
       <c r="J5" s="4">
         <v>1235</v>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>11887</v>
+        <v>11800</v>
       </c>
       <c r="J6" s="4">
         <v>11880</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>12503</v>
+        <v>11800</v>
       </c>
       <c r="J7" s="4">
         <v>11887</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="J8" s="4">
         <v>11890</v>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>11670</v>
+        <v>11800</v>
       </c>
       <c r="J9" s="4">
         <v>11892</v>
@@ -1103,7 +1103,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/Work/Data/nf_db.xlsx
+++ b/Work/Data/nf_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9273CC5-1A34-4EE2-B13A-0F035E9E08F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D22ED19-606A-4865-90E0-A60CAB5B3D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5064" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Work/Data/nf_db.xlsx
+++ b/Work/Data/nf_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D22ED19-606A-4865-90E0-A60CAB5B3D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B09591-F2DD-46CD-B814-7B86E0825D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5064" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 нф" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
     <t>Номер страны по добыче</t>
   </si>
   <si>
-    <t>Средняя добыча за год (1000 баррелей/день)</t>
-  </si>
-  <si>
-    <t>Добыча (1000 баррелей/день)</t>
+    <t>Добыча (1000 баррелей)</t>
+  </si>
+  <si>
+    <t>Среднедневная добыча за период (1000 баррелей/день)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,10 +514,10 @@
         <v>24</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -543,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="5">
-        <v>1200</v>
+        <v>1232</v>
       </c>
       <c r="J2" s="4">
         <v>1220</v>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="5">
-        <v>1200</v>
+        <v>1232</v>
       </c>
       <c r="J3" s="4">
         <v>1232</v>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="5">
-        <v>1200</v>
+        <v>1232</v>
       </c>
       <c r="J4" s="4">
         <v>1230</v>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="5">
-        <v>1200</v>
+        <v>1232</v>
       </c>
       <c r="J5" s="4">
         <v>1235</v>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>11800</v>
+        <v>11887</v>
       </c>
       <c r="J6" s="4">
         <v>11880</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>11800</v>
+        <v>11887</v>
       </c>
       <c r="J7" s="4">
         <v>11887</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>11800</v>
+        <v>11887</v>
       </c>
       <c r="J8" s="4">
         <v>11890</v>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>11800</v>
+        <v>11887</v>
       </c>
       <c r="J9" s="4">
         <v>11892</v>
@@ -758,6 +758,7 @@
     <row r="20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -766,7 +767,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1087,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,7 +1104,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/Work/Data/nf_db.xlsx
+++ b/Work/Data/nf_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B09591-F2DD-46CD-B814-7B86E0825D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E493C1-1CFC-41EF-A16E-27F0E5B4ADD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 нф" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>2022-12-27</t>
   </si>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F92BE0-858F-4350-8E46-5993371DD3FF}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,13 +865,13 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5">
         <v>2</v>
@@ -897,15 +897,6 @@
         <v>10</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
       <c r="K4" s="5">
         <v>3</v>
       </c>
@@ -930,15 +921,6 @@
         <v>11</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2</v>
-      </c>
       <c r="K5" s="5">
         <v>4</v>
       </c>
@@ -950,27 +932,6 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
       <c r="K6" s="5">
         <v>1</v>
       </c>
@@ -982,27 +943,6 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
       <c r="K7" s="5">
         <v>2</v>
       </c>
@@ -1014,27 +954,6 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
       <c r="K8" s="5">
         <v>3</v>
       </c>
@@ -1046,27 +965,6 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
       <c r="K9" s="5">
         <v>4</v>
       </c>
